--- a/Desafio/Simulacao-HROADS.xlsx
+++ b/Desafio/Simulacao-HROADS.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lameck\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88634395-8B0D-44E2-B8F6-E1389A77A719}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CB300060-EAB6-489E-92DB-2552AB7D5987}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Jogo</t>
   </si>
@@ -153,13 +147,16 @@
     <t>ClasseHabilidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Intersecção </t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,44 +335,43 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -504,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -698,47 +694,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32AF43C-A424-428B-9E68-B458217A3856}">
-  <dimension ref="B1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -857,158 +853,176 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="22" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="G10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="19"/>
+      <c r="G11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="I12" s="10">
         <v>1</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="G13" s="14">
-        <v>2</v>
-      </c>
-      <c r="H13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="G13" s="22">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="10">
         <v>2</v>
       </c>
       <c r="J13" s="10">
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="G14" s="14">
+      <c r="D14" s="16"/>
+      <c r="G14" s="22">
         <v>3</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="10">
         <v>3</v>
       </c>
       <c r="J14" s="10">
         <v>3</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="K18" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="G18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
       <c r="K19" s="11" t="s">
         <v>27</v>
       </c>
@@ -1017,13 +1031,15 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="G20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2</v>
+      </c>
       <c r="K20" s="12">
         <v>1</v>
       </c>
@@ -1032,14 +1048,14 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="26">
-        <v>1</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>25</v>
+      <c r="G21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14">
+        <v>2</v>
       </c>
       <c r="K21" s="12">
         <v>2</v>
@@ -1049,6 +1065,15 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3</v>
+      </c>
       <c r="K22" s="12">
         <v>3</v>
       </c>
@@ -1057,6 +1082,15 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="14">
+        <v>3</v>
+      </c>
+      <c r="I23" s="14">
+        <v>3</v>
+      </c>
       <c r="K23" s="12">
         <v>4</v>
       </c>
@@ -1064,10 +1098,38 @@
         <v>37</v>
       </c>
     </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="14">
+        <v>4</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="14">
+        <v>5</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G19:I19"/>
+  <mergeCells count="22">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:L1"/>
@@ -1082,13 +1144,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
